--- a/excel_files/Reqiurements Documents_user_stories.xlsx
+++ b/excel_files/Reqiurements Documents_user_stories.xlsx
@@ -7,16 +7,295 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UserStories" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>User Stories</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+  <si>
+    <t>User Story ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>US_001</t>
+  </si>
+  <si>
+    <t>US_002</t>
+  </si>
+  <si>
+    <t>US_003</t>
+  </si>
+  <si>
+    <t>US_004</t>
+  </si>
+  <si>
+    <t>US_005</t>
+  </si>
+  <si>
+    <t>US_006</t>
+  </si>
+  <si>
+    <t>US_007</t>
+  </si>
+  <si>
+    <t>US_008</t>
+  </si>
+  <si>
+    <t>US_009</t>
+  </si>
+  <si>
+    <t>US_010</t>
+  </si>
+  <si>
+    <t>US_011</t>
+  </si>
+  <si>
+    <t>US_012</t>
+  </si>
+  <si>
+    <t>US_013</t>
+  </si>
+  <si>
+    <t>US_014</t>
+  </si>
+  <si>
+    <t>US_015</t>
+  </si>
+  <si>
+    <t>US_016</t>
+  </si>
+  <si>
+    <t>US_017</t>
+  </si>
+  <si>
+    <t>US_018</t>
+  </si>
+  <si>
+    <t>US_019</t>
+  </si>
+  <si>
+    <t>US_020</t>
+  </si>
+  <si>
+    <t>Patient Registration</t>
+  </si>
+  <si>
+    <t>Patient Login</t>
+  </si>
+  <si>
+    <t>Search Doctor Information</t>
+  </si>
+  <si>
+    <t>View Doctor Information</t>
+  </si>
+  <si>
+    <t>Book Appointment Online</t>
+  </si>
+  <si>
+    <t>Search and View Appointment Details</t>
+  </si>
+  <si>
+    <t>Confirm Appointment Online</t>
+  </si>
+  <si>
+    <t>Search Doctor's Qualifications</t>
+  </si>
+  <si>
+    <t>View Different Doctors Online</t>
+  </si>
+  <si>
+    <t>Doctor Registration</t>
+  </si>
+  <si>
+    <t>Doctor Login</t>
+  </si>
+  <si>
+    <t>Create Doctor Profile</t>
+  </si>
+  <si>
+    <t>Manage Appointments</t>
+  </si>
+  <si>
+    <t>Access Test Results</t>
+  </si>
+  <si>
+    <t>Cancel/Update Appointments</t>
+  </si>
+  <si>
+    <t>Search Patients</t>
+  </si>
+  <si>
+    <t>Register Diagnostic Center</t>
+  </si>
+  <si>
+    <t>Login as Diagnostic Center</t>
+  </si>
+  <si>
+    <t>Edit Patient Records</t>
+  </si>
+  <si>
+    <t>Manage Diagnostic Center Functionalities</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to view and submit the registration page, so that I can create an account on the application.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to log in with my username and password, so that I can access my account.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to search for doctor's information, so that I can find a suitable doctor for my appointment.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to view detailed information about a doctor, so that I can make an informed decision about booking an appointment.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to book an appointment online with a diagnostic center, so that I can schedule my tests or consultations conveniently.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to search and view appointment details, so that I can manage my scheduled appointments effectively.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to confirm my appointment online, so that I can ensure my slot is reserved.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to search for a doctor's qualifications using filters, so that I can find a specialist for my medical needs.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to view different doctors online, so that I can compare and choose the best doctor for my treatment.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to register online with my profile synced with the government registration number, so that I can create an account on the application.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to log in to the application if already signed up, so that I can access my account and manage my appointments.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to create and manage my profile, so that patients can view my qualifications and specializations.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to view and manage my appointments, so that I can organize my schedule effectively.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to access test results of patients from the diagnostic center, so that I can review and provide appropriate treatment.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to cancel or update appointments, so that I can manage my schedule and accommodate changes.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to search for patients associated with a particular doctor, so that I can manage and update patient records.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to register in respect to the reference number, so that I can create an account on the application.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to log in to the application, so that I can access and manage patient records and appointments.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to edit patient records in respect to test results, so that I can update and maintain accurate patient information.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to add, update contact details, view appointments, upload reports, and log out, so that I can manage the center's operations effectively.</t>
+  </si>
+  <si>
+    <t>1. The system displays the registration page with required fields.
+2. The system validates the input data before submission.
+3. The system confirms successful registration.</t>
+  </si>
+  <si>
+    <t>1. The system displays the login page with username and password fields.
+2. The system validates the credentials upon submission.
+3. The system redirects to the dashboard upon successful login.</t>
+  </si>
+  <si>
+    <t>1. The system provides a search function for doctor's information.
+2. The system displays search results based on the input criteria.
+3. The system allows filtering search results.</t>
+  </si>
+  <si>
+    <t>1. The system displays detailed information about the selected doctor.
+2. The system shows the doctor's qualifications, specializations, and availability.</t>
+  </si>
+  <si>
+    <t>1. The system allows selecting a specific time slot for the appointment.
+2. The system confirms the appointment booking.
+3. The system calculates and displays the waiting time for the appointment.</t>
+  </si>
+  <si>
+    <t>1. The system provides a search function for appointment details.
+2. The system displays the appointment details, including date, time, and location.
+3. The system allows viewing and managing multiple appointments.</t>
+  </si>
+  <si>
+    <t>1. The system sends a confirmation notification upon appointment booking.
+2. The system allows rescheduling or canceling the appointment if needed.
+3. The system updates the appointment status in real-time.</t>
+  </si>
+  <si>
+    <t>1. The system provides filter options for searching doctor's qualifications.
+2. The system displays search results based on the selected filters.
+3. The system allows viewing detailed qualifications of the selected doctor.</t>
+  </si>
+  <si>
+    <t>1. The system displays a list of available doctors.
+2. The system allows viewing profiles and qualifications of different doctors.
+3. The system provides options to sort and filter doctors based on various criteria.</t>
+  </si>
+  <si>
+    <t>1. The system displays the registration page with required fields.
+2. The system validates the input data and syncs with the government registration number.
+3. The system confirms successful registration.</t>
+  </si>
+  <si>
+    <t>1. The system provides options to create and update the profile.
+2. The system allows adding qualifications, specializations, and availability.
+3. The system displays the profile information to patients.</t>
+  </si>
+  <si>
+    <t>1. The system displays a list of scheduled appointments.
+2. The system allows viewing and managing appointment details.
+3. The system updates the appointment status in real-time.</t>
+  </si>
+  <si>
+    <t>1. The system provides access to test results of patients.
+2. The system displays detailed test results and reports.
+3. The system allows downloading and sharing test results.</t>
+  </si>
+  <si>
+    <t>1. The system allows canceling or updating scheduled appointments.
+2. The system sends notifications to patients about appointment changes.
+3. The system updates the appointment status in real-time.</t>
+  </si>
+  <si>
+    <t>1. The system provides a search function for patients.
+2. The system displays search results based on the input criteria.
+3. The system allows filtering search results by doctor.</t>
+  </si>
+  <si>
+    <t>1. The system displays the registration page with required fields.
+2. The system validates the input data and reference number.
+3. The system confirms successful registration.</t>
+  </si>
+  <si>
+    <t>1. The system allows editing patient records.
+2. The system validates the input data before saving changes.
+3. The system updates the patient records in real-time.</t>
+  </si>
+  <si>
+    <t>1. The system allows adding and updating contact details.
+2. The system displays a list of scheduled appointments.
+3. The system allows uploading and managing test reports.
+4. The system provides a log-out option for security.</t>
   </si>
 </sst>
 </file>
@@ -75,8 +354,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -374,15 +656,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="50.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/Reqiurements Documents_user_stories.xlsx
+++ b/excel_files/Reqiurements Documents_user_stories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="163">
   <si>
     <t>User Story ID</t>
   </si>
@@ -88,214 +88,477 @@
     <t>US_020</t>
   </si>
   <si>
-    <t>Patient Registration</t>
-  </si>
-  <si>
-    <t>Patient Login</t>
-  </si>
-  <si>
-    <t>Search Doctor Information</t>
-  </si>
-  <si>
-    <t>View Doctor Information</t>
+    <t>US_021</t>
+  </si>
+  <si>
+    <t>US_022</t>
+  </si>
+  <si>
+    <t>US_023</t>
+  </si>
+  <si>
+    <t>US_024</t>
+  </si>
+  <si>
+    <t>US_025</t>
+  </si>
+  <si>
+    <t>US_026</t>
+  </si>
+  <si>
+    <t>US_027</t>
+  </si>
+  <si>
+    <t>US_028</t>
+  </si>
+  <si>
+    <t>US_029</t>
+  </si>
+  <si>
+    <t>US_030</t>
+  </si>
+  <si>
+    <t>US_031</t>
+  </si>
+  <si>
+    <t>US_032</t>
+  </si>
+  <si>
+    <t>US_033</t>
+  </si>
+  <si>
+    <t>US_034</t>
+  </si>
+  <si>
+    <t>US_035</t>
+  </si>
+  <si>
+    <t>US_036</t>
+  </si>
+  <si>
+    <t>US_037</t>
+  </si>
+  <si>
+    <t>US_038</t>
+  </si>
+  <si>
+    <t>US_039</t>
+  </si>
+  <si>
+    <t>US_040</t>
+  </si>
+  <si>
+    <t>US_041</t>
+  </si>
+  <si>
+    <t>View Registration Page of Patient</t>
+  </si>
+  <si>
+    <t>Fill and Submit Sign-up Form</t>
+  </si>
+  <si>
+    <t>Login to the App</t>
+  </si>
+  <si>
+    <t>Search Doctor's Information</t>
   </si>
   <si>
     <t>Book Appointment Online</t>
   </si>
   <si>
-    <t>Search and View Appointment Details</t>
+    <t>View Appointment Details</t>
   </si>
   <si>
     <t>Confirm Appointment Online</t>
   </si>
   <si>
-    <t>Search Doctor's Qualifications</t>
-  </si>
-  <si>
-    <t>View Different Doctors Online</t>
-  </si>
-  <si>
-    <t>Doctor Registration</t>
-  </si>
-  <si>
-    <t>Doctor Login</t>
-  </si>
-  <si>
-    <t>Create Doctor Profile</t>
-  </si>
-  <si>
-    <t>Manage Appointments</t>
-  </si>
-  <si>
-    <t>Access Test Results</t>
+    <t>Search and View Doctor's Qualifications</t>
+  </si>
+  <si>
+    <t>Register Online with Profile</t>
+  </si>
+  <si>
+    <t>Login into the Application</t>
+  </si>
+  <si>
+    <t>View and Manage Appointments</t>
+  </si>
+  <si>
+    <t>Access Test Reports of Patients</t>
   </si>
   <si>
     <t>Cancel/Update Appointments</t>
   </si>
   <si>
+    <t>Logout from the Application</t>
+  </si>
+  <si>
     <t>Search Patients</t>
   </si>
   <si>
     <t>Register Diagnostic Center</t>
   </si>
   <si>
-    <t>Login as Diagnostic Center</t>
-  </si>
-  <si>
-    <t>Edit Patient Records</t>
-  </si>
-  <si>
-    <t>Manage Diagnostic Center Functionalities</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to view and submit the registration page, so that I can create an account on the application.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to log in with my username and password, so that I can access my account.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to search for doctor's information, so that I can find a suitable doctor for my appointment.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to view detailed information about a doctor, so that I can make an informed decision about booking an appointment.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to book an appointment online with a diagnostic center, so that I can schedule my tests or consultations conveniently.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to search and view appointment details, so that I can manage my scheduled appointments effectively.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to confirm my appointment online, so that I can ensure my slot is reserved.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to search for a doctor's qualifications using filters, so that I can find a specialist for my medical needs.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to view different doctors online, so that I can compare and choose the best doctor for my treatment.</t>
-  </si>
-  <si>
-    <t>As a Doctor, I want to register online with my profile synced with the government registration number, so that I can create an account on the application.</t>
-  </si>
-  <si>
-    <t>As a Doctor, I want to log in to the application if already signed up, so that I can access my account and manage my appointments.</t>
-  </si>
-  <si>
-    <t>As a Doctor, I want to create and manage my profile, so that patients can view my qualifications and specializations.</t>
-  </si>
-  <si>
-    <t>As a Doctor, I want to view and manage my appointments, so that I can organize my schedule effectively.</t>
-  </si>
-  <si>
-    <t>As a Doctor, I want to access test results of patients from the diagnostic center, so that I can review and provide appropriate treatment.</t>
-  </si>
-  <si>
-    <t>As a Doctor, I want to cancel or update appointments, so that I can manage my schedule and accommodate changes.</t>
-  </si>
-  <si>
-    <t>As a Diagnostic Center, I want to search for patients associated with a particular doctor, so that I can manage and update patient records.</t>
-  </si>
-  <si>
-    <t>As a Diagnostic Center, I want to register in respect to the reference number, so that I can create an account on the application.</t>
-  </si>
-  <si>
-    <t>As a Diagnostic Center, I want to log in to the application, so that I can access and manage patient records and appointments.</t>
-  </si>
-  <si>
-    <t>As a Diagnostic Center, I want to edit patient records in respect to test results, so that I can update and maintain accurate patient information.</t>
-  </si>
-  <si>
-    <t>As a Diagnostic Center, I want to add, update contact details, view appointments, upload reports, and log out, so that I can manage the center's operations effectively.</t>
-  </si>
-  <si>
-    <t>1. The system displays the registration page with required fields.
-2. The system validates the input data before submission.
-3. The system confirms successful registration.</t>
-  </si>
-  <si>
-    <t>1. The system displays the login page with username and password fields.
-2. The system validates the credentials upon submission.
-3. The system redirects to the dashboard upon successful login.</t>
-  </si>
-  <si>
-    <t>1. The system provides a search function for doctor's information.
-2. The system displays search results based on the input criteria.
-3. The system allows filtering search results.</t>
-  </si>
-  <si>
-    <t>1. The system displays detailed information about the selected doctor.
-2. The system shows the doctor's qualifications, specializations, and availability.</t>
-  </si>
-  <si>
-    <t>1. The system allows selecting a specific time slot for the appointment.
-2. The system confirms the appointment booking.
-3. The system calculates and displays the waiting time for the appointment.</t>
-  </si>
-  <si>
-    <t>1. The system provides a search function for appointment details.
-2. The system displays the appointment details, including date, time, and location.
-3. The system allows viewing and managing multiple appointments.</t>
-  </si>
-  <si>
-    <t>1. The system sends a confirmation notification upon appointment booking.
-2. The system allows rescheduling or canceling the appointment if needed.
-3. The system updates the appointment status in real-time.</t>
-  </si>
-  <si>
-    <t>1. The system provides filter options for searching doctor's qualifications.
-2. The system displays search results based on the selected filters.
-3. The system allows viewing detailed qualifications of the selected doctor.</t>
-  </si>
-  <si>
-    <t>1. The system displays a list of available doctors.
-2. The system allows viewing profiles and qualifications of different doctors.
-3. The system provides options to sort and filter doctors based on various criteria.</t>
-  </si>
-  <si>
-    <t>1. The system displays the registration page with required fields.
-2. The system validates the input data and syncs with the government registration number.
-3. The system confirms successful registration.</t>
-  </si>
-  <si>
-    <t>1. The system provides options to create and update the profile.
-2. The system allows adding qualifications, specializations, and availability.
-3. The system displays the profile information to patients.</t>
-  </si>
-  <si>
-    <t>1. The system displays a list of scheduled appointments.
-2. The system allows viewing and managing appointment details.
-3. The system updates the appointment status in real-time.</t>
-  </si>
-  <si>
-    <t>1. The system provides access to test results of patients.
-2. The system displays detailed test results and reports.
-3. The system allows downloading and sharing test results.</t>
-  </si>
-  <si>
-    <t>1. The system allows canceling or updating scheduled appointments.
-2. The system sends notifications to patients about appointment changes.
-3. The system updates the appointment status in real-time.</t>
-  </si>
-  <si>
-    <t>1. The system provides a search function for patients.
-2. The system displays search results based on the input criteria.
-3. The system allows filtering search results by doctor.</t>
-  </si>
-  <si>
-    <t>1. The system displays the registration page with required fields.
-2. The system validates the input data and reference number.
-3. The system confirms successful registration.</t>
-  </si>
-  <si>
-    <t>1. The system allows editing patient records.
-2. The system validates the input data before saving changes.
-3. The system updates the patient records in real-time.</t>
-  </si>
-  <si>
-    <t>1. The system allows adding and updating contact details.
-2. The system displays a list of scheduled appointments.
-3. The system allows uploading and managing test reports.
-4. The system provides a log-out option for security.</t>
+    <t>Login/Update Patient Records</t>
+  </si>
+  <si>
+    <t>Add/Update Contact Details</t>
+  </si>
+  <si>
+    <t>View Appointments</t>
+  </si>
+  <si>
+    <t>Upload Reports</t>
+  </si>
+  <si>
+    <t>Scalable System</t>
+  </si>
+  <si>
+    <t>Verifiable System</t>
+  </si>
+  <si>
+    <t>Interoperable System</t>
+  </si>
+  <si>
+    <t>Portable System</t>
+  </si>
+  <si>
+    <t>Reusable Code</t>
+  </si>
+  <si>
+    <t>Scalable System (Android)</t>
+  </si>
+  <si>
+    <t>Scalable System (iOS)</t>
+  </si>
+  <si>
+    <t>Verifiable System (Unit Tests)</t>
+  </si>
+  <si>
+    <t>Interoperable System (Android)</t>
+  </si>
+  <si>
+    <t>Interoperable System (iOS)</t>
+  </si>
+  <si>
+    <t>Portable System (Tablets)</t>
+  </si>
+  <si>
+    <t>Portable System (Smartphones)</t>
+  </si>
+  <si>
+    <t>Reusable Code (Functions)</t>
+  </si>
+  <si>
+    <t>Reusable Code (Test Cases)</t>
+  </si>
+  <si>
+    <t>Scalable System (Performance)</t>
+  </si>
+  <si>
+    <t>Verifiable System (Test Cases)</t>
+  </si>
+  <si>
+    <t>Interoperable System (Data Security)</t>
+  </si>
+  <si>
+    <t>Portable System (Operating System)</t>
+  </si>
+  <si>
+    <t>Reusable Code (Code Quality)</t>
+  </si>
+  <si>
+    <t>Scalable System (User Load)</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to view the registration page, so that I can sign up for the application.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to fill and submit the sign-up form, so that I can complete my registration.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to login to the app, so that I can access my account and use the application.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to search for doctor's information, so that I can find a doctor to book an appointment.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to book an appointment online, so that I can schedule a consultation with a doctor.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to view appointment details, so that I can confirm my appointment schedule.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to confirm my appointment online, so that I can ensure my appointment is booked correctly.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to search and view doctor's qualifications, so that I can research a doctor's credentials.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to register online with my profile, so that I can create a new account and access the application.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to login into the application, so that I can access my account and use the application.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to view and manage appointments, so that I can schedule and manage my consultations.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to access test reports of patients, so that I can review patient test results.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to cancel or update appointments, so that I can manage my consultation schedule.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to logout from the application, so that I can secure my account and exit the application.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to search patients, so that I can find patients associated with a particular doctor.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to register my center, so that I can create a new account and access the application.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to login and update patient records, so that I can access and manage patient data.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to add or update contact details, so that I can manage my center's contact information.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to view appointments, so that I can manage my center's appointment schedule.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to upload reports, so that I can submit test results to patients and doctors.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be scalable, so that it can support business growth.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the system to be verifiable, so that I can ensure it functions as intended.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be interoperable, so that I can access it from different devices.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be portable, so that I can access it from any device.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the code to be reusable, so that I can use it in other applications.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be scalable on Android devices, so that I can use it on my Android device.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be scalable on iOS devices, so that I can use it on my iOS device.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the system to have comprehensive unit tests, so that I can ensure it functions as intended.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be interoperable on Android devices, so that I can access it from my Android device.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be interoperable on iOS devices, so that I can access it from my iOS device.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be portable on tablets, so that I can access it from my tablet.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be portable on smartphones, so that I can access it from my smartphone.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the code to have reusable functions, so that I can use them in other applications.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the test cases to be reusable, so that I can use them in future applications.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be scalable in terms of performance, so that I can use it efficiently.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the system to have comprehensive test cases, so that I can ensure it functions as intended.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to maintain data security, so that my patient data is protected.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be portable across operating systems, so that I can use it on any device.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the code to be of high quality, so that it can be reused in other applications.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be scalable in terms of user load, so that I can use it with multiple users.</t>
+  </si>
+  <si>
+    <t>1. The system displays a registration page with a sign-up form.
+2. The form includes fields for required information (e.g., name, email, password).
+3. The form has a submit button to complete the registration process.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to fill out the sign-up form with required information.
+2. The system validates the form data and provides feedback on any errors.
+3. The system submits the form and creates a new user account.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to login with my username and password.
+2. The system verifies my credentials and grants access to my account.
+3. The system displays a dashboard or main menu with available features.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to search for doctors by name, specialty, or location.
+2. The system displays a list of matching doctors with relevant information (e.g., name, specialty, location).
+3. The system provides a way to filter or sort the search results.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to search for available appointment slots with a doctor.
+2. The system allows me to select a preferred appointment time and date.
+3. The system confirms the appointment booking and provides a confirmation message.</t>
+  </si>
+  <si>
+    <t>1. The system displays appointment details, including date, time, and doctor's information.
+2. The system provides a way to view or print appointment confirmation.
+3. The system allows me to cancel or reschedule the appointment if needed.</t>
+  </si>
+  <si>
+    <t>1. The system confirms the appointment booking and provides a confirmation message.
+2. The system displays a summary of the appointment details.
+3. The system allows me to print or save the confirmation message.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to search for doctors by name, specialty, or location.
+2. The system displays a list of matching doctors with relevant information (e.g., name, specialty, location).
+3. The system provides a way to view a doctor's qualifications, including education, certifications, and experience.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to register online with my profile information.
+2. The system validates the profile data and provides feedback on any errors.
+3. The system creates a new user account for the doctor.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to view a list of upcoming appointments.
+2. The system allows me to view and edit appointment details (e.g., date, time, patient information).
+3. The system provides a way to cancel or reschedule appointments if needed.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to access test reports of patients.
+2. The system displays a list of available test reports for a patient.
+3. The system provides a way to view or print test reports.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to cancel or update appointments.
+2. The system verifies the appointment details and provides feedback on any errors.
+3. The system updates the appointment schedule accordingly.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to logout from the application.
+2. The system terminates my session and logs me out.
+3. The system displays a confirmation message indicating successful logout.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to search for patients by name, date of birth, or medical record number.
+2. The system displays a list of matching patients with relevant information (e.g., name, date of birth, medical record number).
+3. The system provides a way to filter or sort the search results.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to register my diagnostic center with required information.
+2. The system validates the registration data and provides feedback on any errors.
+3. The system creates a new user account for the diagnostic center.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to login with my username and password.
+2. The system verifies my credentials and grants access to my account.
+3. The system allows me to update patient records with new test results or other relevant information.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to add or update contact details (e.g., phone number, email, address).
+2. The system validates the contact data and provides feedback on any errors.
+3. The system updates the contact information accordingly.</t>
+  </si>
+  <si>
+    <t>1. The system allows me to upload reports in a supported format (e.g., PDF, Word document).
+2. The system validates the report data and provides feedback on any errors.
+3. The system stores the uploaded reports in a secure and accessible location.</t>
+  </si>
+  <si>
+    <t>1. The system should be designed to handle increased traffic and user load.
+2. The system should be able to process data efficiently without compromising performance.</t>
+  </si>
+  <si>
+    <t>1. The system should have comprehensive test cases covering all possible scenarios.
+2. Unit test cases should ensure 100% branch coverage.</t>
+  </si>
+  <si>
+    <t>1. The system should be available on Android and iOS devices.
+2. The system should maintain data security, hiding patient data under their account.</t>
+  </si>
+  <si>
+    <t>1. The system should be able to run on tablets and smartphones.
+2. The system implementation should not be specific to any operating system.</t>
+  </si>
+  <si>
+    <t>1. The code should have functions that can be reused.
+2. Some test cases should be in a format that can be used in future applications.</t>
+  </si>
+  <si>
+    <t>1. The system should be designed to handle increased traffic and user load on Android devices.
+2. The system should be able to process data efficiently without compromising performance on Android devices.</t>
+  </si>
+  <si>
+    <t>1. The system should be designed to handle increased traffic and user load on iOS devices.
+2. The system should be able to process data efficiently without compromising performance on iOS devices.</t>
+  </si>
+  <si>
+    <t>1. Unit test cases should cover all possible scenarios.
+2. Unit test cases should ensure 100% branch coverage.</t>
+  </si>
+  <si>
+    <t>1. The system should be available on Android devices.
+2. The system should maintain data security, hiding patient data under their account.</t>
+  </si>
+  <si>
+    <t>1. The system should be available on iOS devices.
+2. The system should maintain data security, hiding patient data under their account.</t>
+  </si>
+  <si>
+    <t>1. The system should be able to run on tablets.
+2. The system implementation should not be specific to any operating system.</t>
+  </si>
+  <si>
+    <t>1. The system should be able to run on smartphones.
+2. The system implementation should not be specific to any operating system.</t>
+  </si>
+  <si>
+    <t>1. The code should have functions that can be reused.
+2. The code should be modular and easy to maintain.</t>
+  </si>
+  <si>
+    <t>1. Some test cases should be in a format that can be used in future applications.
+2. The test cases should be easy to maintain and update.</t>
+  </si>
+  <si>
+    <t>1. The system should be able to process data efficiently without compromising performance.
+2. The system should be able to handle increased traffic and user load.</t>
+  </si>
+  <si>
+    <t>1. The system should have comprehensive test cases covering all possible scenarios.
+2. The test cases should be easy to maintain and update.</t>
+  </si>
+  <si>
+    <t>1. The system should maintain data security, hiding patient data under their account.
+2. The system should ensure that patient data is not accessible to unauthorized users.</t>
+  </si>
+  <si>
+    <t>1. The system implementation should not be specific to any operating system.
+2. The system should be able to run on different operating systems.</t>
+  </si>
+  <si>
+    <t>1. The code should be modular and easy to maintain.
+2. The code should be well-documented and easy to understand.</t>
+  </si>
+  <si>
+    <t>1. The system should be able to handle increased user load.
+2. The system should be able to process data efficiently without compromising performance.</t>
   </si>
 </sst>
 </file>
@@ -656,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,28 +946,19 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -712,13 +966,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -726,13 +980,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -740,13 +994,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -754,13 +1008,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -768,13 +1022,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -782,13 +1036,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -796,13 +1050,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -810,13 +1064,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -824,13 +1078,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -838,13 +1092,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -852,13 +1106,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -866,13 +1120,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -880,13 +1134,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -894,13 +1148,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -908,13 +1162,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -922,13 +1176,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -936,13 +1190,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -950,13 +1204,307 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>81</v>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/Reqiurements Documents_user_stories.xlsx
+++ b/excel_files/Reqiurements Documents_user_stories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>User Story ID</t>
   </si>
@@ -148,25 +148,22 @@
     <t>US_040</t>
   </si>
   <si>
-    <t>US_041</t>
-  </si>
-  <si>
     <t>View Registration Page of Patient</t>
   </si>
   <si>
-    <t>Fill and Submit Sign-up Form</t>
+    <t>Fill and Submit Sign Up Form</t>
   </si>
   <si>
     <t>Login to the App</t>
   </si>
   <si>
-    <t>Search Doctor's Information</t>
-  </si>
-  <si>
-    <t>Book Appointment Online</t>
-  </si>
-  <si>
-    <t>View Appointment Details</t>
+    <t>Reserve Doctor Appointment</t>
+  </si>
+  <si>
+    <t>View Doctor Information</t>
+  </si>
+  <si>
+    <t>Book Appointment Online with Diagnostic Center</t>
   </si>
   <si>
     <t>Confirm Appointment Online</t>
@@ -175,7 +172,7 @@
     <t>Search and View Doctor's Qualifications</t>
   </si>
   <si>
-    <t>Register Online with Profile</t>
+    <t>Create Profile</t>
   </si>
   <si>
     <t>Login into the Application</t>
@@ -190,7 +187,7 @@
     <t>Cancel/Update Appointments</t>
   </si>
   <si>
-    <t>Logout from the Application</t>
+    <t>Log Out from the Application</t>
   </si>
   <si>
     <t>Search Patients</t>
@@ -202,363 +199,373 @@
     <t>Login/Update Patient Records</t>
   </si>
   <si>
-    <t>Add/Update Contact Details</t>
-  </si>
-  <si>
-    <t>View Appointments</t>
+    <t>Diagnostic Center Functionality</t>
+  </si>
+  <si>
+    <t>Add Contact Details</t>
   </si>
   <si>
     <t>Upload Reports</t>
   </si>
   <si>
-    <t>Scalable System</t>
-  </si>
-  <si>
-    <t>Verifiable System</t>
-  </si>
-  <si>
-    <t>Interoperable System</t>
-  </si>
-  <si>
-    <t>Portable System</t>
-  </si>
-  <si>
-    <t>Reusable Code</t>
-  </si>
-  <si>
-    <t>Scalable System (Android)</t>
-  </si>
-  <si>
-    <t>Scalable System (iOS)</t>
-  </si>
-  <si>
-    <t>Verifiable System (Unit Tests)</t>
-  </si>
-  <si>
-    <t>Interoperable System (Android)</t>
-  </si>
-  <si>
-    <t>Interoperable System (iOS)</t>
-  </si>
-  <si>
-    <t>Portable System (Tablets)</t>
-  </si>
-  <si>
-    <t>Portable System (Smartphones)</t>
-  </si>
-  <si>
-    <t>Reusable Code (Functions)</t>
-  </si>
-  <si>
-    <t>Reusable Code (Test Cases)</t>
-  </si>
-  <si>
-    <t>Scalable System (Performance)</t>
-  </si>
-  <si>
-    <t>Verifiable System (Test Cases)</t>
-  </si>
-  <si>
-    <t>Interoperable System (Data Security)</t>
-  </si>
-  <si>
-    <t>Portable System (Operating System)</t>
-  </si>
-  <si>
-    <t>Reusable Code (Code Quality)</t>
-  </si>
-  <si>
-    <t>Scalable System (User Load)</t>
+    <t>Scalability - Expand Capabilities</t>
+  </si>
+  <si>
+    <t>Verifiability - Test Functionality</t>
+  </si>
+  <si>
+    <t>Interoperability - Android and iOS Support</t>
+  </si>
+  <si>
+    <t>Interoperability - Data Security</t>
+  </si>
+  <si>
+    <t>Portability - Run on Tablets and Smartphones</t>
+  </si>
+  <si>
+    <t>Portability - Operating System Independence</t>
+  </si>
+  <si>
+    <t>Reusability - Code Reuse</t>
+  </si>
+  <si>
+    <t>Reusability - Test Case Format</t>
+  </si>
+  <si>
+    <t>Scalability - Horizontal Scaling</t>
+  </si>
+  <si>
+    <t>Verifiability - Functional Testing</t>
+  </si>
+  <si>
+    <t>Interoperability - Data Exchange</t>
+  </si>
+  <si>
+    <t>Portability - Cloud Deployment</t>
+  </si>
+  <si>
+    <t>Reusability - Code Modularity</t>
+  </si>
+  <si>
+    <t>Scalability - Vertical Scaling</t>
+  </si>
+  <si>
+    <t>Verifiability - Performance Testing</t>
+  </si>
+  <si>
+    <t>Interoperability - System Integration</t>
+  </si>
+  <si>
+    <t>Portability - Device Independence</t>
+  </si>
+  <si>
+    <t>Reusability - Design Patterns</t>
+  </si>
+  <si>
+    <t>Scalability - Load Balancing</t>
+  </si>
+  <si>
+    <t>Verifiability - Security Testing</t>
   </si>
   <si>
     <t>As a Patient, I want to view the registration page, so that I can sign up for the application.</t>
   </si>
   <si>
-    <t>As a Patient, I want to fill and submit the sign-up form, so that I can complete my registration.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to login to the app, so that I can access my account and use the application.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to search for doctor's information, so that I can find a doctor to book an appointment.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to book an appointment online, so that I can schedule a consultation with a doctor.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to view appointment details, so that I can confirm my appointment schedule.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to confirm my appointment online, so that I can ensure my appointment is booked correctly.</t>
-  </si>
-  <si>
-    <t>As a Patient, I want to search and view doctor's qualifications, so that I can research a doctor's credentials.</t>
-  </si>
-  <si>
-    <t>As a Doctor, I want to register online with my profile, so that I can create a new account and access the application.</t>
-  </si>
-  <si>
-    <t>As a Doctor, I want to login into the application, so that I can access my account and use the application.</t>
-  </si>
-  <si>
-    <t>As a Doctor, I want to view and manage appointments, so that I can schedule and manage my consultations.</t>
-  </si>
-  <si>
-    <t>As a Doctor, I want to access test reports of patients, so that I can review patient test results.</t>
-  </si>
-  <si>
-    <t>As a Doctor, I want to cancel or update appointments, so that I can manage my consultation schedule.</t>
-  </si>
-  <si>
-    <t>As a Doctor, I want to logout from the application, so that I can secure my account and exit the application.</t>
-  </si>
-  <si>
-    <t>As a Diagnostic Center, I want to search patients, so that I can find patients associated with a particular doctor.</t>
-  </si>
-  <si>
-    <t>As a Diagnostic Center, I want to register my center, so that I can create a new account and access the application.</t>
-  </si>
-  <si>
-    <t>As a Diagnostic Center, I want to login and update patient records, so that I can access and manage patient data.</t>
-  </si>
-  <si>
-    <t>As a Diagnostic Center, I want to add or update contact details, so that I can manage my center's contact information.</t>
-  </si>
-  <si>
-    <t>As a Diagnostic Center, I want to view appointments, so that I can manage my center's appointment schedule.</t>
-  </si>
-  <si>
-    <t>As a Diagnostic Center, I want to upload reports, so that I can submit test results to patients and doctors.</t>
-  </si>
-  <si>
-    <t>As a user, I want the system to be scalable, so that it can support business growth.</t>
-  </si>
-  <si>
-    <t>As a developer, I want the system to be verifiable, so that I can ensure it functions as intended.</t>
-  </si>
-  <si>
-    <t>As a user, I want the system to be interoperable, so that I can access it from different devices.</t>
-  </si>
-  <si>
-    <t>As a user, I want the system to be portable, so that I can access it from any device.</t>
-  </si>
-  <si>
-    <t>As a developer, I want the code to be reusable, so that I can use it in other applications.</t>
-  </si>
-  <si>
-    <t>As a user, I want the system to be scalable on Android devices, so that I can use it on my Android device.</t>
-  </si>
-  <si>
-    <t>As a user, I want the system to be scalable on iOS devices, so that I can use it on my iOS device.</t>
-  </si>
-  <si>
-    <t>As a developer, I want the system to have comprehensive unit tests, so that I can ensure it functions as intended.</t>
-  </si>
-  <si>
-    <t>As a user, I want the system to be interoperable on Android devices, so that I can access it from my Android device.</t>
-  </si>
-  <si>
-    <t>As a user, I want the system to be interoperable on iOS devices, so that I can access it from my iOS device.</t>
-  </si>
-  <si>
-    <t>As a user, I want the system to be portable on tablets, so that I can access it from my tablet.</t>
-  </si>
-  <si>
-    <t>As a user, I want the system to be portable on smartphones, so that I can access it from my smartphone.</t>
-  </si>
-  <si>
-    <t>As a developer, I want the code to have reusable functions, so that I can use them in other applications.</t>
-  </si>
-  <si>
-    <t>As a developer, I want the test cases to be reusable, so that I can use them in future applications.</t>
-  </si>
-  <si>
-    <t>As a user, I want the system to be scalable in terms of performance, so that I can use it efficiently.</t>
-  </si>
-  <si>
-    <t>As a developer, I want the system to have comprehensive test cases, so that I can ensure it functions as intended.</t>
-  </si>
-  <si>
-    <t>As a user, I want the system to maintain data security, so that my patient data is protected.</t>
-  </si>
-  <si>
-    <t>As a user, I want the system to be portable across operating systems, so that I can use it on any device.</t>
-  </si>
-  <si>
-    <t>As a developer, I want the code to be of high quality, so that it can be reused in other applications.</t>
-  </si>
-  <si>
-    <t>As a user, I want the system to be scalable in terms of user load, so that I can use it with multiple users.</t>
-  </si>
-  <si>
-    <t>1. The system displays a registration page with a sign-up form.
-2. The form includes fields for required information (e.g., name, email, password).
-3. The form has a submit button to complete the registration process.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to fill out the sign-up form with required information.
-2. The system validates the form data and provides feedback on any errors.
-3. The system submits the form and creates a new user account.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to login with my username and password.
-2. The system verifies my credentials and grants access to my account.
-3. The system displays a dashboard or main menu with available features.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to search for doctors by name, specialty, or location.
-2. The system displays a list of matching doctors with relevant information (e.g., name, specialty, location).
-3. The system provides a way to filter or sort the search results.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to search for available appointment slots with a doctor.
-2. The system allows me to select a preferred appointment time and date.
-3. The system confirms the appointment booking and provides a confirmation message.</t>
-  </si>
-  <si>
-    <t>1. The system displays appointment details, including date, time, and doctor's information.
-2. The system provides a way to view or print appointment confirmation.
-3. The system allows me to cancel or reschedule the appointment if needed.</t>
-  </si>
-  <si>
-    <t>1. The system confirms the appointment booking and provides a confirmation message.
-2. The system displays a summary of the appointment details.
-3. The system allows me to print or save the confirmation message.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to search for doctors by name, specialty, or location.
-2. The system displays a list of matching doctors with relevant information (e.g., name, specialty, location).
-3. The system provides a way to view a doctor's qualifications, including education, certifications, and experience.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to register online with my profile information.
-2. The system validates the profile data and provides feedback on any errors.
-3. The system creates a new user account for the doctor.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to view a list of upcoming appointments.
-2. The system allows me to view and edit appointment details (e.g., date, time, patient information).
-3. The system provides a way to cancel or reschedule appointments if needed.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to access test reports of patients.
-2. The system displays a list of available test reports for a patient.
-3. The system provides a way to view or print test reports.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to cancel or update appointments.
-2. The system verifies the appointment details and provides feedback on any errors.
-3. The system updates the appointment schedule accordingly.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to logout from the application.
-2. The system terminates my session and logs me out.
-3. The system displays a confirmation message indicating successful logout.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to search for patients by name, date of birth, or medical record number.
-2. The system displays a list of matching patients with relevant information (e.g., name, date of birth, medical record number).
-3. The system provides a way to filter or sort the search results.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to register my diagnostic center with required information.
-2. The system validates the registration data and provides feedback on any errors.
-3. The system creates a new user account for the diagnostic center.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to login with my username and password.
-2. The system verifies my credentials and grants access to my account.
-3. The system allows me to update patient records with new test results or other relevant information.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to add or update contact details (e.g., phone number, email, address).
-2. The system validates the contact data and provides feedback on any errors.
-3. The system updates the contact information accordingly.</t>
-  </si>
-  <si>
-    <t>1. The system allows me to upload reports in a supported format (e.g., PDF, Word document).
-2. The system validates the report data and provides feedback on any errors.
-3. The system stores the uploaded reports in a secure and accessible location.</t>
-  </si>
-  <si>
-    <t>1. The system should be designed to handle increased traffic and user load.
-2. The system should be able to process data efficiently without compromising performance.</t>
-  </si>
-  <si>
-    <t>1. The system should have comprehensive test cases covering all possible scenarios.
-2. Unit test cases should ensure 100% branch coverage.</t>
-  </si>
-  <si>
-    <t>1. The system should be available on Android and iOS devices.
-2. The system should maintain data security, hiding patient data under their account.</t>
-  </si>
-  <si>
-    <t>1. The system should be able to run on tablets and smartphones.
-2. The system implementation should not be specific to any operating system.</t>
-  </si>
-  <si>
-    <t>1. The code should have functions that can be reused.
-2. Some test cases should be in a format that can be used in future applications.</t>
-  </si>
-  <si>
-    <t>1. The system should be designed to handle increased traffic and user load on Android devices.
-2. The system should be able to process data efficiently without compromising performance on Android devices.</t>
-  </si>
-  <si>
-    <t>1. The system should be designed to handle increased traffic and user load on iOS devices.
-2. The system should be able to process data efficiently without compromising performance on iOS devices.</t>
-  </si>
-  <si>
-    <t>1. Unit test cases should cover all possible scenarios.
-2. Unit test cases should ensure 100% branch coverage.</t>
-  </si>
-  <si>
-    <t>1. The system should be available on Android devices.
-2. The system should maintain data security, hiding patient data under their account.</t>
-  </si>
-  <si>
-    <t>1. The system should be available on iOS devices.
-2. The system should maintain data security, hiding patient data under their account.</t>
-  </si>
-  <si>
-    <t>1. The system should be able to run on tablets.
-2. The system implementation should not be specific to any operating system.</t>
-  </si>
-  <si>
-    <t>1. The system should be able to run on smartphones.
-2. The system implementation should not be specific to any operating system.</t>
-  </si>
-  <si>
-    <t>1. The code should have functions that can be reused.
-2. The code should be modular and easy to maintain.</t>
-  </si>
-  <si>
-    <t>1. Some test cases should be in a format that can be used in future applications.
-2. The test cases should be easy to maintain and update.</t>
-  </si>
-  <si>
-    <t>1. The system should be able to process data efficiently without compromising performance.
-2. The system should be able to handle increased traffic and user load.</t>
-  </si>
-  <si>
-    <t>1. The system should have comprehensive test cases covering all possible scenarios.
-2. The test cases should be easy to maintain and update.</t>
-  </si>
-  <si>
-    <t>1. The system should maintain data security, hiding patient data under their account.
-2. The system should ensure that patient data is not accessible to unauthorized users.</t>
-  </si>
-  <si>
-    <t>1. The system implementation should not be specific to any operating system.
-2. The system should be able to run on different operating systems.</t>
-  </si>
-  <si>
-    <t>1. The code should be modular and easy to maintain.
-2. The code should be well-documented and easy to understand.</t>
-  </si>
-  <si>
-    <t>1. The system should be able to handle increased user load.
-2. The system should be able to process data efficiently without compromising performance.</t>
+    <t>As a Patient, I want to fill and submit the sign up form, so that I can create an account.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to login to the app, so that I can access my account.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to reserve a doctor appointment, so that I can schedule a consultation.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to view doctor information, so that I can make an informed decision.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to book an appointment online with a diagnostic center, so that I can schedule a test or examination.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to confirm my appointment online, so that I can verify the details.</t>
+  </si>
+  <si>
+    <t>As a Patient, I want to search and view a doctor's qualifications, so that I can make an informed decision.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to create a profile, so that I can register on the application.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to login into the application, so that I can access my profile.</t>
+  </si>
+  <si>
+    <t>As a Doctor, I want to view and manage my appointments, so that I can schedule and track consultations.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to access test reports of patients, so that I can provide accurate diagnosis.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to cancel or update appointments, so that I can manage my schedule.</t>
+  </si>
+  <si>
+    <t>As a User, I want to log out from the application, so that I can secure my account.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to search patients, so that I can access their test reports.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to register on the application, so that I can access patient test reports.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to login and update patient records, so that I can manage patient information.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to access diagnostic center functionality, so that I can manage my operations.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to add contact details, so that I can provide accurate information.</t>
+  </si>
+  <si>
+    <t>As a Diagnostic Center, I want to upload reports, so that I can provide accurate diagnosis.</t>
+  </si>
+  <si>
+    <t>As a system administrator, I want the system to be scalable, so that it can support business growth.</t>
+  </si>
+  <si>
+    <t>As a quality assurance engineer, I want the system functionality to be tested with test cases, so that it can be proven to function as intended.</t>
+  </si>
+  <si>
+    <t>As a user, I want the application to be available on Android and iOS, so that I can access it on my preferred device.</t>
+  </si>
+  <si>
+    <t>As a patient, I want my data to be secure and hidden under my account, so that it is not accessible to unauthorized users.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be able to run on tablets and smartphones, so that I can access it on-the-go.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the system implementation to be independent of any operating system, so that it can be easily transferred to different environments.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the codes and backend to have functions that can be reused, so that development time and resources can be minimized.</t>
+  </si>
+  <si>
+    <t>As a quality assurance engineer, I want some test cases to be in a format that can be used in future applications, so that testing time and resources can be minimized.</t>
+  </si>
+  <si>
+    <t>As a system administrator, I want the system to be able to scale horizontally, so that it can handle increased user traffic and processing demands.</t>
+  </si>
+  <si>
+    <t>As a quality assurance engineer, I want the system functionality to be tested functionally, so that it can be proven to function as intended.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be able to exchange data with other systems, so that I can access and share information seamlessly.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the system to be able to be deployed in the cloud, so that it can be easily scaled and managed.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the codes to be modular and reusable, so that development time and resources can be minimized.</t>
+  </si>
+  <si>
+    <t>As a system administrator, I want the system to be able to scale vertically, so that it can handle increased processing demands and performance requirements.</t>
+  </si>
+  <si>
+    <t>As a quality assurance engineer, I want the system performance to be tested, so that it can be proven to meet its performance requirements.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be able to integrate with other systems, so that I can access and share information seamlessly.</t>
+  </si>
+  <si>
+    <t>As a user, I want the system to be able to run on different devices, so that I can access it from anywhere.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the system design to incorporate reusable design patterns, so that development time and resources can be minimized.</t>
+  </si>
+  <si>
+    <t>As a system administrator, I want the system to be able to handle increased user traffic and processing demands through load balancing, so that it can scale efficiently.</t>
+  </si>
+  <si>
+    <t>As a security engineer, I want the system security to be tested, so that it can be proven to meet its security requirements.</t>
+  </si>
+  <si>
+    <t>1. The system displays a registration page with required fields.
+2. The page includes a clear and concise description of the registration process.
+3. The page has a submit button to initiate the registration process.</t>
+  </si>
+  <si>
+    <t>1. The system allows users to fill out the registration form with required information.
+2. The system validates the input data and provides feedback for invalid entries.
+3. The system submits the form and creates a new account.</t>
+  </si>
+  <si>
+    <t>1. The system allows users to login with their username and password.
+2. The system validates the login credentials and provides feedback for invalid entries.
+3. The system redirects the user to their dashboard after a successful login.</t>
+  </si>
+  <si>
+    <t>1. The system allows users to search and view doctor information.
+2. The system allows users to book an appointment with a selected doctor.
+3. The system sends a confirmation email or notification for the appointment booking.</t>
+  </si>
+  <si>
+    <t>1. The system displays doctor information, including qualifications and experience.
+2. The system allows users to filter doctors by specialty or location.
+3. The system provides a clear and concise description of the doctor's services.</t>
+  </si>
+  <si>
+    <t>1. The system allows users to search and view diagnostic center information.
+2. The system allows users to book an appointment with a selected diagnostic center.
+3. The system sends a confirmation email or notification for the appointment booking.</t>
+  </si>
+  <si>
+    <t>1. The system displays the appointment details, including date, time, and location.
+2. The system allows users to confirm or cancel the appointment.
+3. The system sends a confirmation email or notification for the appointment confirmation.</t>
+  </si>
+  <si>
+    <t>1. The system allows users to search for a doctor's qualifications.
+2. The system displays the doctor's qualifications, including education and experience.
+3. The system provides a clear and concise description of the doctor's services.</t>
+  </si>
+  <si>
+    <t>1. The system allows doctors to create a profile with required information.
+2. The system validates the input data and provides feedback for invalid entries.
+3. The system creates a new profile for the doctor.</t>
+  </si>
+  <si>
+    <t>1. The system allows doctors to login with their username and password.
+2. The system validates the login credentials and provides feedback for invalid entries.
+3. The system redirects the doctor to their profile after a successful login.</t>
+  </si>
+  <si>
+    <t>1. The system displays the doctor's appointments, including date, time, and location.
+2. The system allows doctors to view and manage their appointments.
+3. The system sends a notification or reminder for upcoming appointments.</t>
+  </si>
+  <si>
+    <t>1. The system allows diagnostic centers to access patient test reports.
+2. The system displays the test reports, including results and analysis.
+3. The system provides a clear and concise description of the test results.</t>
+  </si>
+  <si>
+    <t>1. The system allows diagnostic centers to cancel or update appointments.
+2. The system sends a notification or reminder for appointment changes.
+3. The system updates the appointment status accordingly.</t>
+  </si>
+  <si>
+    <t>1. The system allows users to log out from the application.
+2. The system invalidates the user's session and clears any sensitive data.
+3. The system redirects the user to the login page after a successful logout.</t>
+  </si>
+  <si>
+    <t>1. The system allows diagnostic centers to search patients by name, ID, or other criteria.
+2. The system displays the patient's information, including test reports and appointment history.
+3. The system provides a clear and concise description of the patient's information.</t>
+  </si>
+  <si>
+    <t>1. The system allows diagnostic centers to register with required information.
+2. The system validates the input data and provides feedback for invalid entries.
+3. The system creates a new profile for the diagnostic center.</t>
+  </si>
+  <si>
+    <t>1. The system allows diagnostic centers to login with their username and password.
+2. The system allows diagnostic centers to update patient records, including test results and appointment history.
+3. The system sends a notification or reminder for updated records.</t>
+  </si>
+  <si>
+    <t>1. The system allows diagnostic centers to access their functionality, including appointment scheduling and test report management.
+2. The system provides a clear and concise description of the diagnostic center's services.
+3. The system allows diagnostic centers to update their contact information and appointment schedules.</t>
+  </si>
+  <si>
+    <t>1. The system allows diagnostic centers to add contact details, including phone number and email.
+2. The system validates the input data and provides feedback for invalid entries.
+3. The system updates the diagnostic center's profile with the new contact information.</t>
+  </si>
+  <si>
+    <t>1. The system allows diagnostic centers to upload test reports, including results and analysis.
+2. The system validates the uploaded reports and provides feedback for invalid entries.
+3. The system updates the patient's test report with the new information.</t>
+  </si>
+  <si>
+    <t>1. The system can handle increased user traffic without a significant decrease in performance.
+2. The system can be easily upgraded to support additional features and functionality.</t>
+  </si>
+  <si>
+    <t>1. 100% branch coverage is achieved through unit test cases.
+2. Test cases cover all possible failure scenarios.</t>
+  </si>
+  <si>
+    <t>1. The application is compatible with Android and iOS operating systems.
+2. The application can be downloaded and installed on both platforms.</t>
+  </si>
+  <si>
+    <t>1. Patient data is encrypted and stored securely.
+2. Access to patient data is restricted to authorized users only.</t>
+  </si>
+  <si>
+    <t>1. The system is compatible with tablets and smartphones.
+2. The system can be installed and run on these devices.</t>
+  </si>
+  <si>
+    <t>1. The system can run on multiple operating systems without modification.
+2. The system is not specific to any particular operating system.</t>
+  </si>
+  <si>
+    <t>1. Reusable code is developed and integrated into the system.
+2. The system can be easily extended or modified using reusable code.</t>
+  </si>
+  <si>
+    <t>1. Test cases are formatted for reuse in future applications.
+2. The test case format is standardized and consistent.</t>
+  </si>
+  <si>
+    <t>1. The system can be easily scaled horizontally by adding more nodes or servers.
+2. The system can handle increased user traffic and processing demands without a significant decrease in performance.</t>
+  </si>
+  <si>
+    <t>1. Functional testing is performed to ensure the system meets its functional requirements.
+2. The system is tested with a variety of inputs and scenarios.</t>
+  </si>
+  <si>
+    <t>1. The system can exchange data with other systems.
+2. The system can interpret and present data in a way that is understandable to users.</t>
+  </si>
+  <si>
+    <t>1. The system can be deployed in a cloud environment.
+2. The system can be easily scaled and managed in the cloud.</t>
+  </si>
+  <si>
+    <t>1. Code is modular and reusable.
+2. The system can be easily extended or modified using modular code.</t>
+  </si>
+  <si>
+    <t>1. The system can be easily scaled vertically by upgrading hardware or software.
+2. The system can handle increased processing demands and performance requirements without a significant decrease in performance.</t>
+  </si>
+  <si>
+    <t>1. Performance testing is performed to ensure the system meets its performance requirements.
+2. The system is tested under various loads and scenarios.</t>
+  </si>
+  <si>
+    <t>1. The system can integrate with other systems.
+2. The system can exchange data and present information in a way that is understandable to users.</t>
+  </si>
+  <si>
+    <t>1. The system can run on different devices.
+2. The system is device-independent and can be accessed from anywhere.</t>
+  </si>
+  <si>
+    <t>1. Reusable design patterns are incorporated into the system design.
+2. The system can be easily extended or modified using reusable design patterns.</t>
+  </si>
+  <si>
+    <t>1. The system can handle increased user traffic and processing demands through load balancing.
+2. The system can scale efficiently and maintain performance under heavy loads.</t>
+  </si>
+  <si>
+    <t>1. Security testing is performed to ensure the system meets its security requirements.
+2. The system is tested for vulnerabilities and weaknesses.</t>
   </si>
 </sst>
 </file>
@@ -919,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,6 +953,15 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -1084,7 +1100,7 @@
         <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1098,7 +1114,7 @@
         <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1112,7 +1128,7 @@
         <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1126,7 +1142,7 @@
         <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1140,7 +1156,7 @@
         <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1154,7 +1170,7 @@
         <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1168,7 +1184,7 @@
         <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1182,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1196,7 +1212,7 @@
         <v>102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1210,7 +1226,7 @@
         <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1224,7 +1240,7 @@
         <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1238,7 +1254,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1252,7 +1268,7 @@
         <v>106</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1266,7 +1282,7 @@
         <v>107</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1280,7 +1296,7 @@
         <v>108</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1294,7 +1310,7 @@
         <v>109</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1308,7 +1324,7 @@
         <v>110</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1322,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1336,7 +1352,7 @@
         <v>112</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1350,7 +1366,7 @@
         <v>113</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1364,7 +1380,7 @@
         <v>114</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1378,7 +1394,7 @@
         <v>115</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1392,7 +1408,7 @@
         <v>116</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1406,7 +1422,7 @@
         <v>117</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1420,7 +1436,7 @@
         <v>118</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1434,7 +1450,7 @@
         <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1448,7 +1464,7 @@
         <v>120</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1462,7 +1478,7 @@
         <v>121</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1476,7 +1492,7 @@
         <v>122</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1490,21 +1506,7 @@
         <v>123</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
